--- a/Code/Results/Cases/Case_3_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.87015360812323</v>
+        <v>15.39256106555644</v>
       </c>
       <c r="C2">
-        <v>7.927055671636142</v>
+        <v>5.281295514341418</v>
       </c>
       <c r="D2">
-        <v>5.424319120478438</v>
+        <v>7.75811563821173</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.55820357913779</v>
+        <v>38.21005944343406</v>
       </c>
       <c r="G2">
-        <v>2.125109474764734</v>
+        <v>3.717395060308168</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.66785901524618</v>
+        <v>31.72469780236165</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.39568248069573</v>
+        <v>13.20996876328252</v>
       </c>
       <c r="L2">
-        <v>6.916912619030518</v>
+        <v>10.84794232929675</v>
       </c>
       <c r="M2">
-        <v>11.01940225420511</v>
+        <v>16.03704142207095</v>
       </c>
       <c r="N2">
-        <v>15.52491094212952</v>
+        <v>23.02341862152726</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.00829791724299</v>
+        <v>15.22459039801095</v>
       </c>
       <c r="C3">
-        <v>7.42222802088372</v>
+        <v>5.043646997262314</v>
       </c>
       <c r="D3">
-        <v>5.465832591339854</v>
+        <v>7.762640867588784</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.80962864138213</v>
+        <v>38.14602805274244</v>
       </c>
       <c r="G3">
-        <v>2.132572857751826</v>
+        <v>3.72013394041565</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.47278298896551</v>
+        <v>31.75301386769192</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.63247312351471</v>
+        <v>13.08526699425582</v>
       </c>
       <c r="L3">
-        <v>6.818452078309731</v>
+        <v>10.85604394937295</v>
       </c>
       <c r="M3">
-        <v>10.68859631104996</v>
+        <v>16.02128896020184</v>
       </c>
       <c r="N3">
-        <v>15.68983852350572</v>
+        <v>23.07429295256215</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.46051084149077</v>
+        <v>15.12460205486797</v>
       </c>
       <c r="C4">
-        <v>7.096996850944068</v>
+        <v>4.890689443285682</v>
       </c>
       <c r="D4">
-        <v>5.49130312809159</v>
+        <v>7.765457926244703</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.36432510596319</v>
+        <v>38.11492459770506</v>
       </c>
       <c r="G4">
-        <v>2.137286354796401</v>
+        <v>3.721904545746547</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.36694675265771</v>
+        <v>31.77570811930995</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.19569885276503</v>
+        <v>13.01152383139821</v>
       </c>
       <c r="L4">
-        <v>6.760905927977771</v>
+        <v>10.86261525325722</v>
       </c>
       <c r="M4">
-        <v>10.48677753461841</v>
+        <v>16.0145308584872</v>
       </c>
       <c r="N4">
-        <v>15.79539907306926</v>
+        <v>23.10742640515188</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.2328134562971</v>
+        <v>15.08469421130342</v>
       </c>
       <c r="C5">
-        <v>6.960606688679293</v>
+        <v>4.826627285134463</v>
       </c>
       <c r="D5">
-        <v>5.501689029081104</v>
+        <v>7.766615734008594</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.18656760456392</v>
+        <v>38.10432133190169</v>
       </c>
       <c r="G5">
-        <v>2.139241203126239</v>
+        <v>3.722648517511951</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.32722633401488</v>
+        <v>31.78628974383145</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.01452538014947</v>
+        <v>12.98221519503958</v>
       </c>
       <c r="L5">
-        <v>6.738192092186655</v>
+        <v>10.86569500743624</v>
       </c>
       <c r="M5">
-        <v>10.40496407560499</v>
+        <v>16.01251248749491</v>
       </c>
       <c r="N5">
-        <v>15.83948099619074</v>
+        <v>23.12140591941487</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19474160303303</v>
+        <v>15.07811951131141</v>
       </c>
       <c r="C6">
-        <v>6.937725988183422</v>
+        <v>4.815886571820998</v>
       </c>
       <c r="D6">
-        <v>5.503414304109083</v>
+        <v>7.766808585129652</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.15727800749069</v>
+        <v>38.10268595058893</v>
       </c>
       <c r="G6">
-        <v>2.139567893279991</v>
+        <v>3.722773410741981</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.32083376499286</v>
+        <v>31.78812731412706</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.98425551949641</v>
+        <v>12.97739426067564</v>
       </c>
       <c r="L6">
-        <v>6.734465097723322</v>
+        <v>10.86623068009512</v>
       </c>
       <c r="M6">
-        <v>10.39140805977751</v>
+        <v>16.01222184280842</v>
       </c>
       <c r="N6">
-        <v>15.84686470885961</v>
+        <v>23.12375605349744</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.45745782027573</v>
+        <v>15.12406038896298</v>
       </c>
       <c r="C7">
-        <v>7.095173074253223</v>
+        <v>4.889832428922744</v>
       </c>
       <c r="D7">
-        <v>5.491443155556524</v>
+        <v>7.765473500858071</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.36191265929036</v>
+        <v>38.11477320291876</v>
       </c>
       <c r="G7">
-        <v>2.137312579204032</v>
+        <v>3.721914488268115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.36639739802798</v>
+        <v>31.77584542930981</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.19326810420231</v>
+        <v>13.01112551801749</v>
       </c>
       <c r="L7">
-        <v>6.760596612481665</v>
+        <v>10.86265516025104</v>
       </c>
       <c r="M7">
-        <v>10.48567229114146</v>
+        <v>16.01450065611857</v>
       </c>
       <c r="N7">
-        <v>15.79598928240646</v>
+        <v>23.10761300431298</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.57695704658676</v>
+        <v>15.33402049492961</v>
       </c>
       <c r="C8">
-        <v>7.756146230665868</v>
+        <v>5.200837331404946</v>
       </c>
       <c r="D8">
-        <v>5.438643860052443</v>
+        <v>7.759668021099543</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.29718573926445</v>
+        <v>38.18628149398253</v>
       </c>
       <c r="G8">
-        <v>2.127656372151723</v>
+        <v>3.718321016009737</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.59764596761489</v>
+        <v>31.73335884689218</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.10467313724092</v>
+        <v>13.16640514493287</v>
       </c>
       <c r="L8">
-        <v>6.882363100272661</v>
+        <v>10.85040456852665</v>
       </c>
       <c r="M8">
-        <v>10.90513107077602</v>
+        <v>16.03100702439325</v>
       </c>
       <c r="N8">
-        <v>15.58087715422154</v>
+        <v>23.040566789481</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.6179121765874</v>
+        <v>15.76857376024182</v>
       </c>
       <c r="C9">
-        <v>8.932417704250692</v>
+        <v>5.753427968865489</v>
       </c>
       <c r="D9">
-        <v>5.334408496489377</v>
+        <v>7.748582756585293</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.24035690056692</v>
+        <v>38.39130470801427</v>
       </c>
       <c r="G9">
-        <v>2.109704918866904</v>
+        <v>3.711976335882272</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.16594311985979</v>
+        <v>31.69220446947247</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.09628648594497</v>
+        <v>13.49183822612719</v>
       </c>
       <c r="L9">
-        <v>7.143965624351322</v>
+        <v>10.83903400021548</v>
       </c>
       <c r="M9">
-        <v>11.73381279493738</v>
+        <v>16.08635399517659</v>
       </c>
       <c r="N9">
-        <v>15.19389725131848</v>
+        <v>22.92411375871141</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.07778488965241</v>
+        <v>16.09880482481857</v>
       </c>
       <c r="C10">
-        <v>9.725799812927155</v>
+        <v>6.122961669186052</v>
       </c>
       <c r="D10">
-        <v>5.256575750339718</v>
+        <v>7.74061127303463</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.7290073876184</v>
+        <v>38.58084624591769</v>
       </c>
       <c r="G10">
-        <v>2.097034076178727</v>
+        <v>3.707738100945887</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.65910670723845</v>
+        <v>31.6877167858251</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.42599514967849</v>
+        <v>13.74163510101783</v>
       </c>
       <c r="L10">
-        <v>7.34971654756604</v>
+        <v>10.83836607623946</v>
       </c>
       <c r="M10">
-        <v>12.34143802487623</v>
+        <v>16.14080885088437</v>
       </c>
       <c r="N10">
-        <v>14.93212655675411</v>
+        <v>22.84768302403141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.75665747703885</v>
+        <v>16.2507776620272</v>
       </c>
       <c r="C11">
-        <v>10.07198895836339</v>
+        <v>6.282923867167529</v>
       </c>
       <c r="D11">
-        <v>5.220693044068332</v>
+        <v>7.737020311994296</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.41858066444495</v>
+        <v>38.67536158616882</v>
       </c>
       <c r="G11">
-        <v>2.09136243430275</v>
+        <v>3.705900885528891</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.90107577588111</v>
+        <v>31.69126865367582</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.00304669868735</v>
+        <v>13.85714431670612</v>
       </c>
       <c r="L11">
-        <v>7.446189713443596</v>
+        <v>10.83972341170422</v>
       </c>
       <c r="M11">
-        <v>12.61676324140887</v>
+        <v>16.16852124701248</v>
       </c>
       <c r="N11">
-        <v>14.81829720630489</v>
+        <v>22.81488810179187</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.0092198729091</v>
+        <v>16.3085238315045</v>
       </c>
       <c r="C12">
-        <v>10.20102575714051</v>
+        <v>6.342311993804358</v>
       </c>
       <c r="D12">
-        <v>5.207018100142242</v>
+        <v>7.735665433920076</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.68143316436014</v>
+        <v>38.71232799698559</v>
       </c>
       <c r="G12">
-        <v>2.089226221031282</v>
+        <v>3.705218155549796</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.99533597564565</v>
+        <v>31.69341737696569</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.21765636450174</v>
+        <v>13.90111576645617</v>
       </c>
       <c r="L12">
-        <v>7.48313005798773</v>
+        <v>10.84047541782582</v>
       </c>
       <c r="M12">
-        <v>12.72081073183508</v>
+        <v>16.17943263661768</v>
       </c>
       <c r="N12">
-        <v>14.77598543623543</v>
+        <v>22.80275292861721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.95502521536422</v>
+        <v>16.29607924028731</v>
       </c>
       <c r="C13">
-        <v>10.1733258495025</v>
+        <v>6.3295746638272</v>
       </c>
       <c r="D13">
-        <v>5.209967423665008</v>
+        <v>7.735957013558591</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.62474699841849</v>
+        <v>38.70431462417002</v>
       </c>
       <c r="G13">
-        <v>2.089685810537342</v>
+        <v>3.705364617329475</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.97491672717431</v>
+        <v>31.69291887984701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.17160851061123</v>
+        <v>13.89163609324441</v>
       </c>
       <c r="L13">
-        <v>7.475156216120375</v>
+        <v>10.84030288903993</v>
       </c>
       <c r="M13">
-        <v>12.69841244018236</v>
+        <v>16.17706420675907</v>
       </c>
       <c r="N13">
-        <v>14.78506209999802</v>
+        <v>22.80535384844777</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.77752582806546</v>
+        <v>16.25552482733365</v>
       </c>
       <c r="C14">
-        <v>10.08264575978322</v>
+        <v>6.287833612842086</v>
       </c>
       <c r="D14">
-        <v>5.219569852678744</v>
+        <v>7.736908747112782</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.4401713247543</v>
+        <v>38.67837937865323</v>
       </c>
       <c r="G14">
-        <v>2.091186466681182</v>
+        <v>3.705844457112299</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.90877730773038</v>
+        <v>31.69142932786685</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.02078049903076</v>
+        <v>13.8607574762163</v>
       </c>
       <c r="L14">
-        <v>7.449220665751456</v>
+        <v>10.83978051488968</v>
       </c>
       <c r="M14">
-        <v>12.62532782047701</v>
+        <v>16.16941060347618</v>
       </c>
       <c r="N14">
-        <v>14.81480006181081</v>
+        <v>22.81388405251252</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.66821749930689</v>
+        <v>16.23070818057426</v>
       </c>
       <c r="C15">
-        <v>10.02683554024778</v>
+        <v>6.262111143377955</v>
       </c>
       <c r="D15">
-        <v>5.225439717483443</v>
+        <v>7.737492350826672</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.32733700335462</v>
+        <v>38.66264584842732</v>
       </c>
       <c r="G15">
-        <v>2.092107106228709</v>
+        <v>3.706140061608337</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.8686106696224</v>
+        <v>31.69062157575375</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.92788810821907</v>
+        <v>13.84187230513826</v>
       </c>
       <c r="L15">
-        <v>7.433387395812319</v>
+        <v>10.83949151450273</v>
       </c>
       <c r="M15">
-        <v>12.58053229576627</v>
+        <v>16.16477672403875</v>
       </c>
       <c r="N15">
-        <v>14.83311991054605</v>
+        <v>22.81914596772574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.03278262758048</v>
+        <v>16.08890359862616</v>
       </c>
       <c r="C16">
-        <v>9.702884191029447</v>
+        <v>6.112342559511704</v>
       </c>
       <c r="D16">
-        <v>5.258909648000698</v>
+        <v>7.740846649584392</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.68418607438042</v>
+        <v>38.57483489691739</v>
       </c>
       <c r="G16">
-        <v>2.097406442473362</v>
+        <v>3.707859987979992</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.6436563878815</v>
+        <v>31.6875971726056</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.38773134153339</v>
+        <v>13.73412070178998</v>
       </c>
       <c r="L16">
-        <v>7.34346916603787</v>
+        <v>10.83831072698589</v>
       </c>
       <c r="M16">
-        <v>12.32341794930396</v>
+        <v>16.13905648873415</v>
       </c>
       <c r="N16">
-        <v>14.93967433949325</v>
+        <v>22.8498659430546</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.6348315330259</v>
+        <v>16.00232039958065</v>
       </c>
       <c r="C17">
-        <v>9.500419496701658</v>
+        <v>6.018367368277945</v>
       </c>
       <c r="D17">
-        <v>5.27930779794694</v>
+        <v>7.74291334896582</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.29275834271451</v>
+        <v>38.52307801174816</v>
       </c>
       <c r="G17">
-        <v>2.100679863628392</v>
+        <v>3.708938307605926</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.5102370834636</v>
+        <v>31.68717408508982</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.04929870688792</v>
+        <v>13.66847114708538</v>
       </c>
       <c r="L17">
-        <v>7.289039479116679</v>
+        <v>10.83801123926978</v>
       </c>
       <c r="M17">
-        <v>12.16536468111578</v>
+        <v>16.12402730792375</v>
       </c>
       <c r="N17">
-        <v>15.00641208859138</v>
+        <v>22.86921698709365</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.4101975317109</v>
+        <v>15.95268788916133</v>
       </c>
       <c r="C18">
-        <v>9.382577200342054</v>
+        <v>5.963549807691793</v>
       </c>
       <c r="D18">
-        <v>5.290996655392328</v>
+        <v>7.7441053910539</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.06878647291345</v>
+        <v>38.49409041310138</v>
       </c>
       <c r="G18">
-        <v>2.1025714595272</v>
+        <v>3.709567077243679</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.43515101227508</v>
+        <v>31.68745726970687</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85201471406601</v>
+        <v>13.63089012722254</v>
       </c>
       <c r="L18">
-        <v>7.258003925751883</v>
+        <v>10.83799539804058</v>
       </c>
       <c r="M18">
-        <v>12.07435694770026</v>
+        <v>16.11566006463306</v>
       </c>
       <c r="N18">
-        <v>15.04528956979187</v>
+        <v>22.88053299473503</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.33936420301983</v>
+        <v>15.93591366031894</v>
       </c>
       <c r="C19">
-        <v>9.342437394865412</v>
+        <v>5.944858569034503</v>
       </c>
       <c r="D19">
-        <v>5.29494734491904</v>
+        <v>7.744509572350698</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.99315591888752</v>
+        <v>38.48441043659328</v>
       </c>
       <c r="G19">
-        <v>2.103213486137501</v>
+        <v>3.709781438238516</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.41000917807276</v>
+        <v>31.68764359563527</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.78476381396929</v>
+        <v>13.61819774920203</v>
       </c>
       <c r="L19">
-        <v>7.247542551176925</v>
+        <v>10.8380169236558</v>
       </c>
       <c r="M19">
-        <v>12.04352807755598</v>
+        <v>16.11287482154853</v>
       </c>
       <c r="N19">
-        <v>15.0585362104219</v>
+        <v>22.88439632046241</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67750564434048</v>
+        <v>16.01152035022832</v>
       </c>
       <c r="C20">
-        <v>9.522115654741622</v>
+        <v>6.028450537918935</v>
       </c>
       <c r="D20">
-        <v>5.277141022723865</v>
+        <v>7.742693001491202</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.33430618090915</v>
+        <v>38.52850684550197</v>
       </c>
       <c r="G20">
-        <v>2.100330502835957</v>
+        <v>3.708822634391189</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.52426800340062</v>
+        <v>31.6871646322909</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.08559659432217</v>
+        <v>13.675441424886</v>
       </c>
       <c r="L20">
-        <v>7.294805613457273</v>
+        <v>10.83802693767477</v>
       </c>
       <c r="M20">
-        <v>12.18220048131106</v>
+        <v>16.12559854532674</v>
       </c>
       <c r="N20">
-        <v>14.99925659817333</v>
+        <v>22.86713780796799</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.82978340860103</v>
+        <v>16.26743171450621</v>
       </c>
       <c r="C21">
-        <v>10.10933602662819</v>
+        <v>6.3001262696098</v>
       </c>
       <c r="D21">
-        <v>5.216751901985129</v>
+        <v>7.736629066880954</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.49433913500087</v>
+        <v>38.68596542868003</v>
       </c>
       <c r="G21">
-        <v>2.090745389980722</v>
+        <v>3.7057031647226</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.92813184416478</v>
+        <v>31.69184503985402</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.06518758627244</v>
+        <v>13.86982132702678</v>
       </c>
       <c r="L21">
-        <v>7.456827527186774</v>
+        <v>10.83992749664542</v>
       </c>
       <c r="M21">
-        <v>12.64680068864653</v>
+        <v>16.17164737306927</v>
       </c>
       <c r="N21">
-        <v>14.80604345018069</v>
+        <v>22.81137083140094</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.55661259279973</v>
+        <v>16.43581021136725</v>
       </c>
       <c r="C22">
-        <v>10.48115888447087</v>
+        <v>6.470763537886337</v>
       </c>
       <c r="D22">
-        <v>5.176767484494333</v>
+        <v>7.732694672200421</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.26254226427478</v>
+        <v>38.79571647758183</v>
       </c>
       <c r="G22">
-        <v>2.08454714276383</v>
+        <v>3.703740057203617</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.20746780553459</v>
+        <v>31.69958801015111</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.68268186648719</v>
+        <v>13.99818596204026</v>
       </c>
       <c r="L22">
-        <v>7.565095353836853</v>
+        <v>10.8425564665997</v>
       </c>
       <c r="M22">
-        <v>12.94918982373181</v>
+        <v>16.204172450257</v>
       </c>
       <c r="N22">
-        <v>14.68441138540406</v>
+        <v>22.77657653168949</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.17106068577938</v>
+        <v>16.34585819348575</v>
       </c>
       <c r="C23">
-        <v>10.28378259570627</v>
+        <v>6.380328605919582</v>
       </c>
       <c r="D23">
-        <v>5.198161762775362</v>
+        <v>7.734791947970428</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.85162892452895</v>
+        <v>38.73652015694861</v>
       </c>
       <c r="G23">
-        <v>2.08784983509039</v>
+        <v>3.70478090608993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.05694000963327</v>
+        <v>31.69502715681372</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.3551594637279</v>
+        <v>13.92956689569928</v>
       </c>
       <c r="L23">
-        <v>7.507094645790331</v>
+        <v>10.84102675183056</v>
       </c>
       <c r="M23">
-        <v>12.78792906267267</v>
+        <v>16.18659284869031</v>
       </c>
       <c r="N23">
-        <v>14.74888967884427</v>
+        <v>22.79499577435769</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.65822240135534</v>
+        <v>16.00736059571671</v>
       </c>
       <c r="C24">
-        <v>9.512311319647241</v>
+        <v>6.023894396394883</v>
       </c>
       <c r="D24">
-        <v>5.278120739757801</v>
+        <v>7.742792608496181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.31551908112247</v>
+        <v>38.52605007573202</v>
       </c>
       <c r="G24">
-        <v>2.100488418621951</v>
+        <v>3.708874902743154</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.51791959064204</v>
+        <v>31.68716726599073</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.06919478185821</v>
+        <v>13.67228965535755</v>
       </c>
       <c r="L24">
-        <v>7.292197943807118</v>
+        <v>10.83801935338539</v>
       </c>
       <c r="M24">
-        <v>12.17458945021947</v>
+        <v>16.12488733737214</v>
       </c>
       <c r="N24">
-        <v>15.00249001256252</v>
+        <v>22.86807721032488</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.08308120625306</v>
+        <v>15.64887377268307</v>
       </c>
       <c r="C25">
-        <v>8.6268342426158</v>
+        <v>5.610247180110944</v>
       </c>
       <c r="D25">
-        <v>5.362762646909388</v>
+        <v>7.751550570496299</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.70360190523396</v>
+        <v>38.32895770820753</v>
       </c>
       <c r="G25">
-        <v>2.114463981987937</v>
+        <v>3.713618074749729</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.99932271891823</v>
+        <v>31.69881792223926</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.58131626516655</v>
+        <v>13.40176831134879</v>
       </c>
       <c r="L25">
-        <v>7.070788854080131</v>
+        <v>10.84075791073374</v>
       </c>
       <c r="M25">
-        <v>11.50952326634418</v>
+        <v>16.06894179221491</v>
       </c>
       <c r="N25">
-        <v>15.29473413263343</v>
+        <v>22.9540122982508</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.39256106555644</v>
+        <v>14.87015360812327</v>
       </c>
       <c r="C2">
-        <v>5.281295514341418</v>
+        <v>7.927055671636108</v>
       </c>
       <c r="D2">
-        <v>7.75811563821173</v>
+        <v>5.424319120478507</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.21005944343406</v>
+        <v>30.55820357913775</v>
       </c>
       <c r="G2">
-        <v>3.717395060308168</v>
+        <v>2.125109474764469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.72469780236165</v>
+        <v>22.66785901524611</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.20996876328252</v>
+        <v>12.39568248069578</v>
       </c>
       <c r="L2">
-        <v>10.84794232929675</v>
+        <v>6.916912619030538</v>
       </c>
       <c r="M2">
-        <v>16.03704142207095</v>
+        <v>11.01940225420508</v>
       </c>
       <c r="N2">
-        <v>23.02341862152726</v>
+        <v>15.52491094212951</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.22459039801095</v>
+        <v>14.008297917243</v>
       </c>
       <c r="C3">
-        <v>5.043646997262314</v>
+        <v>7.422228020883387</v>
       </c>
       <c r="D3">
-        <v>7.762640867588784</v>
+        <v>5.465832591340121</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.14602805274244</v>
+        <v>29.8096286413821</v>
       </c>
       <c r="G3">
-        <v>3.72013394041565</v>
+        <v>2.132572857751826</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.75301386769192</v>
+        <v>22.47278298896545</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.08526699425582</v>
+        <v>11.63247312351474</v>
       </c>
       <c r="L3">
-        <v>10.85604394937295</v>
+        <v>6.818452078309738</v>
       </c>
       <c r="M3">
-        <v>16.02128896020184</v>
+        <v>10.68859631104995</v>
       </c>
       <c r="N3">
-        <v>23.07429295256215</v>
+        <v>15.68983852350567</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.12460205486797</v>
+        <v>13.46051084149079</v>
       </c>
       <c r="C4">
-        <v>4.890689443285682</v>
+        <v>7.096996850944034</v>
       </c>
       <c r="D4">
-        <v>7.765457926244703</v>
+        <v>5.491303128091523</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.11492459770506</v>
+        <v>29.36432510596316</v>
       </c>
       <c r="G4">
-        <v>3.721904545746547</v>
+        <v>2.137286354796538</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.77570811930995</v>
+        <v>22.36694675265765</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.01152383139821</v>
+        <v>11.19569885276502</v>
       </c>
       <c r="L4">
-        <v>10.86261525325722</v>
+        <v>6.760905927977688</v>
       </c>
       <c r="M4">
-        <v>16.0145308584872</v>
+        <v>10.48677753461838</v>
       </c>
       <c r="N4">
-        <v>23.10742640515188</v>
+        <v>15.79539907306923</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.08469421130342</v>
+        <v>13.23281345629714</v>
       </c>
       <c r="C5">
-        <v>4.826627285134463</v>
+        <v>6.96060668867938</v>
       </c>
       <c r="D5">
-        <v>7.766615734008594</v>
+        <v>5.50168902908117</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.10432133190169</v>
+        <v>29.18656760456405</v>
       </c>
       <c r="G5">
-        <v>3.722648517511951</v>
+        <v>2.139241203126238</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.78628974383145</v>
+        <v>22.32722633401513</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.98221519503958</v>
+        <v>11.01452538014949</v>
       </c>
       <c r="L5">
-        <v>10.86569500743624</v>
+        <v>6.738192092186542</v>
       </c>
       <c r="M5">
-        <v>16.01251248749491</v>
+        <v>10.404964075605</v>
       </c>
       <c r="N5">
-        <v>23.12140591941487</v>
+        <v>15.83948099619085</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.07811951131141</v>
+        <v>13.19474160303304</v>
       </c>
       <c r="C6">
-        <v>4.815886571820998</v>
+        <v>6.937725988183413</v>
       </c>
       <c r="D6">
-        <v>7.766808585129652</v>
+        <v>5.50341430410942</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.10268595058893</v>
+        <v>29.1572780074907</v>
       </c>
       <c r="G6">
-        <v>3.722773410741981</v>
+        <v>2.139567893279722</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.78812731412706</v>
+        <v>22.32083376499297</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.97739426067564</v>
+        <v>10.9842555194964</v>
       </c>
       <c r="L6">
-        <v>10.86623068009512</v>
+        <v>6.734465097723341</v>
       </c>
       <c r="M6">
-        <v>16.01222184280842</v>
+        <v>10.39140805977754</v>
       </c>
       <c r="N6">
-        <v>23.12375605349744</v>
+        <v>15.84686470885968</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.12406038896298</v>
+        <v>13.45745782027573</v>
       </c>
       <c r="C7">
-        <v>4.889832428922744</v>
+        <v>7.095173074253114</v>
       </c>
       <c r="D7">
-        <v>7.765473500858071</v>
+        <v>5.491443155556858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.11477320291876</v>
+        <v>29.36191265929022</v>
       </c>
       <c r="G7">
-        <v>3.721914488268115</v>
+        <v>2.137312579203765</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.77584542930981</v>
+        <v>22.36639739802797</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.01112551801749</v>
+        <v>11.19326810420231</v>
       </c>
       <c r="L7">
-        <v>10.86265516025104</v>
+        <v>6.760596612481685</v>
       </c>
       <c r="M7">
-        <v>16.01450065611857</v>
+        <v>10.48567229114145</v>
       </c>
       <c r="N7">
-        <v>23.10761300431298</v>
+        <v>15.79598928240643</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.33402049492961</v>
+        <v>14.57695704658672</v>
       </c>
       <c r="C8">
-        <v>5.200837331404946</v>
+        <v>7.756146230665853</v>
       </c>
       <c r="D8">
-        <v>7.759668021099543</v>
+        <v>5.438643860052508</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.18628149398253</v>
+        <v>30.29718573926424</v>
       </c>
       <c r="G8">
-        <v>3.718321016009737</v>
+        <v>2.127656372151725</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.73335884689218</v>
+        <v>22.59764596761474</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.16640514493287</v>
+        <v>12.10467313724096</v>
       </c>
       <c r="L8">
-        <v>10.85040456852665</v>
+        <v>6.882363100272753</v>
       </c>
       <c r="M8">
-        <v>16.03100702439325</v>
+        <v>10.90513107077602</v>
       </c>
       <c r="N8">
-        <v>23.040566789481</v>
+        <v>15.58087715422145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.76857376024182</v>
+        <v>16.61791217658742</v>
       </c>
       <c r="C9">
-        <v>5.753427968865489</v>
+        <v>8.932417704250524</v>
       </c>
       <c r="D9">
-        <v>7.748582756585293</v>
+        <v>5.334408496489445</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.39130470801427</v>
+        <v>32.24035690056696</v>
       </c>
       <c r="G9">
-        <v>3.711976335882272</v>
+        <v>2.109704918866635</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.69220446947247</v>
+        <v>23.16594311985975</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.49183822612719</v>
+        <v>14.09628648594496</v>
       </c>
       <c r="L9">
-        <v>10.83903400021548</v>
+        <v>7.143965624351332</v>
       </c>
       <c r="M9">
-        <v>16.08635399517659</v>
+        <v>11.73381279493737</v>
       </c>
       <c r="N9">
-        <v>22.92411375871141</v>
+        <v>15.19389725131848</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.09880482481857</v>
+        <v>18.07778488965243</v>
       </c>
       <c r="C10">
-        <v>6.122961669186052</v>
+        <v>9.725799812927068</v>
       </c>
       <c r="D10">
-        <v>7.74061127303463</v>
+        <v>5.256575750339717</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.58084624591769</v>
+        <v>33.72900738761844</v>
       </c>
       <c r="G10">
-        <v>3.707738100945887</v>
+        <v>2.097034076178729</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.6877167858251</v>
+        <v>23.65910670723846</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.74163510101783</v>
+        <v>15.42599514967849</v>
       </c>
       <c r="L10">
-        <v>10.83836607623946</v>
+        <v>7.349716547566033</v>
       </c>
       <c r="M10">
-        <v>16.14080885088437</v>
+        <v>12.34143802487623</v>
       </c>
       <c r="N10">
-        <v>22.84768302403141</v>
+        <v>14.93212655675417</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2507776620272</v>
+        <v>18.75665747703889</v>
       </c>
       <c r="C11">
-        <v>6.282923867167529</v>
+        <v>10.07198895836339</v>
       </c>
       <c r="D11">
-        <v>7.737020311994296</v>
+        <v>5.220693044068197</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.67536158616882</v>
+        <v>34.41858066444498</v>
       </c>
       <c r="G11">
-        <v>3.705900885528891</v>
+        <v>2.091362434302885</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.69126865367582</v>
+        <v>23.90107577588111</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.85714431670612</v>
+        <v>16.00304669868738</v>
       </c>
       <c r="L11">
-        <v>10.83972341170422</v>
+        <v>7.446189713443584</v>
       </c>
       <c r="M11">
-        <v>16.16852124701248</v>
+        <v>12.61676324140885</v>
       </c>
       <c r="N11">
-        <v>22.81488810179187</v>
+        <v>14.81829720630489</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.3085238315045</v>
+        <v>19.00921987290912</v>
       </c>
       <c r="C12">
-        <v>6.342311993804358</v>
+        <v>10.20102575714074</v>
       </c>
       <c r="D12">
-        <v>7.735665433920076</v>
+        <v>5.20701810014204</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.71232799698559</v>
+        <v>34.68143316436014</v>
       </c>
       <c r="G12">
-        <v>3.705218155549796</v>
+        <v>2.089226221031284</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.69341737696569</v>
+        <v>23.99533597564564</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.90111576645617</v>
+        <v>16.21765636450179</v>
       </c>
       <c r="L12">
-        <v>10.84047541782582</v>
+        <v>7.483130057987776</v>
       </c>
       <c r="M12">
-        <v>16.17943263661768</v>
+        <v>12.7208107318351</v>
       </c>
       <c r="N12">
-        <v>22.80275292861721</v>
+        <v>14.77598543623534</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.29607924028731</v>
+        <v>18.95502521536426</v>
       </c>
       <c r="C13">
-        <v>6.3295746638272</v>
+        <v>10.17332584950257</v>
       </c>
       <c r="D13">
-        <v>7.735957013558591</v>
+        <v>5.209967423665137</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.70431462417002</v>
+        <v>34.62474699841852</v>
       </c>
       <c r="G13">
-        <v>3.705364617329475</v>
+        <v>2.089685810537341</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.69291887984701</v>
+        <v>23.97491672717439</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.89163609324441</v>
+        <v>16.17160851061126</v>
       </c>
       <c r="L13">
-        <v>10.84030288903993</v>
+        <v>7.47515621612035</v>
       </c>
       <c r="M13">
-        <v>16.17706420675907</v>
+        <v>12.69841244018234</v>
       </c>
       <c r="N13">
-        <v>22.80535384844777</v>
+        <v>14.78506209999807</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25552482733365</v>
+        <v>18.77752582806553</v>
       </c>
       <c r="C14">
-        <v>6.287833612842086</v>
+        <v>10.08264575978331</v>
       </c>
       <c r="D14">
-        <v>7.736908747112782</v>
+        <v>5.219569852678609</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.67837937865323</v>
+        <v>34.4401713247542</v>
       </c>
       <c r="G14">
-        <v>3.705844457112299</v>
+        <v>2.091186466681182</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.69142932786685</v>
+        <v>23.90877730773022</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.8607574762163</v>
+        <v>16.02078049903089</v>
       </c>
       <c r="L14">
-        <v>10.83978051488968</v>
+        <v>7.449220665751485</v>
       </c>
       <c r="M14">
-        <v>16.16941060347618</v>
+        <v>12.625327820477</v>
       </c>
       <c r="N14">
-        <v>22.81388405251252</v>
+        <v>14.81480006181068</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23070818057426</v>
+        <v>18.66821749930692</v>
       </c>
       <c r="C15">
-        <v>6.262111143377955</v>
+        <v>10.02683554024773</v>
       </c>
       <c r="D15">
-        <v>7.737492350826672</v>
+        <v>5.225439717483439</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.66264584842732</v>
+        <v>34.32733700335472</v>
       </c>
       <c r="G15">
-        <v>3.706140061608337</v>
+        <v>2.092107106228844</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.69062157575375</v>
+        <v>23.86861066962241</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.84187230513826</v>
+        <v>15.92788810821911</v>
       </c>
       <c r="L15">
-        <v>10.83949151450273</v>
+        <v>7.433387395812295</v>
       </c>
       <c r="M15">
-        <v>16.16477672403875</v>
+        <v>12.58053229576626</v>
       </c>
       <c r="N15">
-        <v>22.81914596772574</v>
+        <v>14.83311991054602</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08890359862616</v>
+        <v>18.03278262758048</v>
       </c>
       <c r="C16">
-        <v>6.112342559511704</v>
+        <v>9.702884191029499</v>
       </c>
       <c r="D16">
-        <v>7.740846649584392</v>
+        <v>5.258909648000832</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.57483489691739</v>
+        <v>33.68418607438037</v>
       </c>
       <c r="G16">
-        <v>3.707859987979992</v>
+        <v>2.097406442473499</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.6875971726056</v>
+        <v>23.64365638788146</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.73412070178998</v>
+        <v>15.38773134153341</v>
       </c>
       <c r="L16">
-        <v>10.83831072698589</v>
+        <v>7.343469166037854</v>
       </c>
       <c r="M16">
-        <v>16.13905648873415</v>
+        <v>12.32341794930395</v>
       </c>
       <c r="N16">
-        <v>22.8498659430546</v>
+        <v>14.93967433949322</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.00232039958065</v>
+        <v>17.63483153302596</v>
       </c>
       <c r="C17">
-        <v>6.018367368277945</v>
+        <v>9.500419496701813</v>
       </c>
       <c r="D17">
-        <v>7.74291334896582</v>
+        <v>5.279307797946737</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.52307801174816</v>
+        <v>33.29275834271454</v>
       </c>
       <c r="G17">
-        <v>3.708938307605926</v>
+        <v>2.100679863627993</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.68717408508982</v>
+        <v>23.51023708346359</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.66847114708538</v>
+        <v>15.04929870688799</v>
       </c>
       <c r="L17">
-        <v>10.83801123926978</v>
+        <v>7.289039479116564</v>
       </c>
       <c r="M17">
-        <v>16.12402730792375</v>
+        <v>12.16536468111572</v>
       </c>
       <c r="N17">
-        <v>22.86921698709365</v>
+        <v>15.00641208859136</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.95268788916133</v>
+        <v>17.41019753171092</v>
       </c>
       <c r="C18">
-        <v>5.963549807691793</v>
+        <v>9.382577200342133</v>
       </c>
       <c r="D18">
-        <v>7.7441053910539</v>
+        <v>5.290996655392263</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.49409041310138</v>
+        <v>33.06878647291339</v>
       </c>
       <c r="G18">
-        <v>3.709567077243679</v>
+        <v>2.102571459527333</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.68745726970687</v>
+        <v>23.43515101227499</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.63089012722254</v>
+        <v>14.85201471406607</v>
       </c>
       <c r="L18">
-        <v>10.83799539804058</v>
+        <v>7.258003925751916</v>
       </c>
       <c r="M18">
-        <v>16.11566006463306</v>
+        <v>12.07435694770026</v>
       </c>
       <c r="N18">
-        <v>22.88053299473503</v>
+        <v>15.04528956979182</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.93591366031894</v>
+        <v>17.33936420301981</v>
       </c>
       <c r="C19">
-        <v>5.944858569034503</v>
+        <v>9.342437394865398</v>
       </c>
       <c r="D19">
-        <v>7.744509572350698</v>
+        <v>5.294947344919105</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.48441043659328</v>
+        <v>32.99315591888769</v>
       </c>
       <c r="G19">
-        <v>3.709781438238516</v>
+        <v>2.10321348613737</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.68764359563527</v>
+        <v>23.41000917807292</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.61819774920203</v>
+        <v>14.78476381396928</v>
       </c>
       <c r="L19">
-        <v>10.8380169236558</v>
+        <v>7.247542551176949</v>
       </c>
       <c r="M19">
-        <v>16.11287482154853</v>
+        <v>12.043528077556</v>
       </c>
       <c r="N19">
-        <v>22.88439632046241</v>
+        <v>15.05853621042205</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.01152035022832</v>
+        <v>17.67750564434044</v>
       </c>
       <c r="C20">
-        <v>6.028450537918935</v>
+        <v>9.522115654741587</v>
       </c>
       <c r="D20">
-        <v>7.742693001491202</v>
+        <v>5.2771410227238</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.52850684550197</v>
+        <v>33.33430618090932</v>
       </c>
       <c r="G20">
-        <v>3.708822634391189</v>
+        <v>2.100330502836225</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.6871646322909</v>
+        <v>23.52426800340083</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.675441424886</v>
+        <v>15.08559659432215</v>
       </c>
       <c r="L20">
-        <v>10.83802693767477</v>
+        <v>7.294805613457207</v>
       </c>
       <c r="M20">
-        <v>16.12559854532674</v>
+        <v>12.18220048131104</v>
       </c>
       <c r="N20">
-        <v>22.86713780796799</v>
+        <v>14.9992565981735</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.26743171450621</v>
+        <v>18.82978340860095</v>
       </c>
       <c r="C21">
-        <v>6.3001262696098</v>
+        <v>10.10933602662826</v>
       </c>
       <c r="D21">
-        <v>7.736629066880954</v>
+        <v>5.21675190198546</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.68596542868003</v>
+        <v>34.49433913500097</v>
       </c>
       <c r="G21">
-        <v>3.7057031647226</v>
+        <v>2.090745389980457</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.69184503985402</v>
+        <v>23.92813184416499</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.86982132702678</v>
+        <v>16.06518758627238</v>
       </c>
       <c r="L21">
-        <v>10.83992749664542</v>
+        <v>7.456827527186742</v>
       </c>
       <c r="M21">
-        <v>16.17164737306927</v>
+        <v>12.64680068864658</v>
       </c>
       <c r="N21">
-        <v>22.81137083140094</v>
+        <v>14.80604345018085</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.43581021136725</v>
+        <v>19.55661259279977</v>
       </c>
       <c r="C22">
-        <v>6.470763537886337</v>
+        <v>10.48115888447096</v>
       </c>
       <c r="D22">
-        <v>7.732694672200421</v>
+        <v>5.17676748449433</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.79571647758183</v>
+        <v>35.26254226427482</v>
       </c>
       <c r="G22">
-        <v>3.703740057203617</v>
+        <v>2.084547142764093</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.69958801015111</v>
+        <v>24.20746780553467</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.99818596204026</v>
+        <v>16.68268186648724</v>
       </c>
       <c r="L22">
-        <v>10.8425564665997</v>
+        <v>7.56509535383692</v>
       </c>
       <c r="M22">
-        <v>16.204172450257</v>
+        <v>12.94918982373187</v>
       </c>
       <c r="N22">
-        <v>22.77657653168949</v>
+        <v>14.68441138540408</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.34585819348575</v>
+        <v>19.17106068577951</v>
       </c>
       <c r="C23">
-        <v>6.380328605919582</v>
+        <v>10.283782595706</v>
       </c>
       <c r="D23">
-        <v>7.734791947970428</v>
+        <v>5.198161762775434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.73652015694861</v>
+        <v>34.85162892452888</v>
       </c>
       <c r="G23">
-        <v>3.70478090608993</v>
+        <v>2.087849835090524</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.69502715681372</v>
+        <v>24.05694000963309</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.92956689569928</v>
+        <v>16.35515946372797</v>
       </c>
       <c r="L23">
-        <v>10.84102675183056</v>
+        <v>7.507094645790298</v>
       </c>
       <c r="M23">
-        <v>16.18659284869031</v>
+        <v>12.78792906267264</v>
       </c>
       <c r="N23">
-        <v>22.79499577435769</v>
+        <v>14.74888967884412</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.00736059571671</v>
+        <v>17.65822240135532</v>
       </c>
       <c r="C24">
-        <v>6.023894396394883</v>
+        <v>9.512311319647283</v>
       </c>
       <c r="D24">
-        <v>7.742792608496181</v>
+        <v>5.278120739757869</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.52605007573202</v>
+        <v>33.31551908112241</v>
       </c>
       <c r="G24">
-        <v>3.708874902743154</v>
+        <v>2.100488418622086</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.68716726599073</v>
+        <v>23.51791959064207</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.67228965535755</v>
+        <v>15.06919478185821</v>
       </c>
       <c r="L24">
-        <v>10.83801935338539</v>
+        <v>7.292197943807103</v>
       </c>
       <c r="M24">
-        <v>16.12488733737214</v>
+        <v>12.17458945021949</v>
       </c>
       <c r="N24">
-        <v>22.86807721032488</v>
+        <v>15.00249001256252</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64887377268307</v>
+        <v>16.0830812062531</v>
       </c>
       <c r="C25">
-        <v>5.610247180110944</v>
+        <v>8.626834242616276</v>
       </c>
       <c r="D25">
-        <v>7.751550570496299</v>
+        <v>5.362762646909252</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.32895770820753</v>
+        <v>31.70360190523397</v>
       </c>
       <c r="G25">
-        <v>3.713618074749729</v>
+        <v>2.114463981988071</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.69881792223926</v>
+        <v>22.99932271891834</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.40176831134879</v>
+        <v>13.58131626516657</v>
       </c>
       <c r="L25">
-        <v>10.84075791073374</v>
+        <v>7.070788854080156</v>
       </c>
       <c r="M25">
-        <v>16.06894179221491</v>
+        <v>11.50952326634422</v>
       </c>
       <c r="N25">
-        <v>22.9540122982508</v>
+        <v>15.29473413263341</v>
       </c>
       <c r="O25">
         <v>0</v>
